--- a/data/trans_bre/P12B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-52,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-30,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.169037120513658</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.887699925291139</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.109764119774725</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5604560284365686</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3019480956562446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,87; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,18; 4,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 7,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>-16.87623154633556</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.83356468674399</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-17.73066851378076</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.420936447503454</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.601679465169433</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-17,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-66,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-91,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-52,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-68,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,98; 1,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-49,94; -3,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 4,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-45,0; 3,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 181,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 78,82</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-9.032695594319422</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-16.35995737566672</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.399346912453709</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.82514167273599</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.7344188010871235</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9101411744121235</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4934649071556689</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6925593604483263</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>153,76%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>71,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-26.49140074513619</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-43.85170479322494</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.95122252775148</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-46.2888578358782</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 14,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 11,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 7,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 10,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-58,58; 655,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.4532452716553897</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-3.535108867546957</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.063178996104527</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.308299261392109</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5674353640841091</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.852415338779027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +799,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>41,58%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-30,34%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-24,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.229556296254712</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.850529437046863</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.57243560665275</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.303257284922438</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.991398560433463</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6334960739880351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 8,6</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; 4,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,76; 5,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 7,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-66,4; 499,59</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-84,32; 168,73</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-75,1; 105,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-72,48; 296,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.978378639611154</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.086903809054691</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.834684803803175</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.362629889089653</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5901306861125086</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.34946266034851</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.4876878179867</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.837161051220303</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.35382437967206</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>6.296496231216801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-15,67%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>37,13%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-28,84%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 10,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 16,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; 7,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 13,68</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-76,74; 175,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-56,61; 315,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-78,79; 108,54</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-72,93; 333,8</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.020484479596071</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.694451225740267</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.350841938239735</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6979533328979326</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4269516574409591</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2446340525107726</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.23087622327416</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.109656307500314</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-59,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-35,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>41,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.950797449702225</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.045511158390944</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-11.70320847808716</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.017601771425386</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6867799584325782</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8386441004383299</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7531100762354558</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7104199914683105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-28,35; 1,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,14; 15,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 8,59</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 38,9</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-90,24; 36,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-78,44; 586,49</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-91,01; 212,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-62,5; 595,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.425544176820022</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.644933179578134</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.780682183930113</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.063495435101478</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.281264005558787</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.80373145026288</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.150280202852715</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.172679744307235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +991,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-16,03%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-31,35%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-27,11%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-3,2%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.437040044908186</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.586175384814305</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.814850558422145</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4754394341127635</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1236878599275082</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.4664319795474753</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.2720308059273395</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.04885676967705554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 2,24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 1,48</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 1,28</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 7,3</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-52,64; 39,82</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-68,71; 25,97</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-58,25; 21,17</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-55,47; 98,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.48905469318375</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.694833238193019</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.66415616780891</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-9.759225207549251</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.7490904636030137</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.5308491839052553</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.7869564535106033</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.74025600856342</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.08707645165343</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.96093262951368</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.65087012284778</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>12.29810273953099</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.895736037078984</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>3.518405894210603</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.158421281562864</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>3.206754730490576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-14.78096360766328</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.575132844674926</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-6.075850717476785</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.869114428494643</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.6237547457537542</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.344740390276232</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.4462126025038007</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.3423315954354288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-31.26124916481411</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.24345114015343</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-20.41289996874834</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-11.79744419080585</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9146802695488451</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.745457940963431</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.9241102266580817</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.6756055481774821</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-0.366024197503004</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>19.67976978802181</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>6.984489031915316</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>33.69896161911608</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.268424017316202</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>6.960520780114202</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.721391095197363</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>4.696915649378843</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.962139520239802</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.84007915457656</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.236582627910488</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.6839012607855868</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2373611577571099</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.2303442058245528</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2731761337729597</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.06220214083851628</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.685485529604334</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.513497021464656</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.397712997538204</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-9.454122144420559</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.5972335521329697</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6294242092623341</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5770735638197539</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.5793870177942345</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.593240018287503</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.15876138735544</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.378568616018401</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>5.963765155864826</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.3084798215723828</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4115475803289734</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2432811513232586</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.835605815378952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1289,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
